--- a/swift/app/hab-chain/design_hab-chain.xlsx
+++ b/swift/app/hab-chain/design_hab-chain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\swift\app\hab-chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C91024-3B32-4895-910E-BADB38EEDC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29412AB5-C647-470A-9813-9D522DCB13C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>■hab-chain</t>
     <phoneticPr fontId="3"/>
@@ -252,6 +252,74 @@
     <t>★ウィジェット</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>★hab_chain_dataが更新されない</t>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★項目名の初期値</t>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★項目名の存在確認チェック</t>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★ItemEditView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★Addボタンを項目の真下に表示する</t>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>マシタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★ItemAddView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★ContentView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★ボタン表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -8380,10 +8448,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:K82"/>
+  <dimension ref="B2:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -8538,14 +8606,54 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C81" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C82" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C84" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C85" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D86" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D87" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C89" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D90" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D93" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/swift/app/hab-chain/design_hab-chain.xlsx
+++ b/swift/app/hab-chain/design_hab-chain.xlsx
@@ -2,19 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\swift\app\hab-chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29412AB5-C647-470A-9813-9D522DCB13C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8798B2E-C22B-42AF-B162-658FB4115F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
   </bookViews>
   <sheets>
     <sheet name="設計" sheetId="2" r:id="rId1"/>
+    <sheet name="色" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="カテゴリ">#REF!</definedName>
   </definedNames>
@@ -28,16 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>■hab-chain</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>★カレンダー表示する？</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -53,26 +50,8 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>★週/月/年達成率</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>★アイコン作成</t>
     <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>★設定</t>
-    <rPh sb="1" eb="3">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>★作成</t>
-    <rPh sb="1" eb="3">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -218,16 +197,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>★並び替えリスト</t>
-    <rPh sb="1" eb="2">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>☆github管理</t>
     <rPh sb="7" eb="9">
       <t>カンリ</t>
@@ -253,27 +222,37 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>★hab_chain_dataが更新されない</t>
-    <rPh sb="16" eb="18">
-      <t>コウシン</t>
+    <t>★ボタン表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>★項目名の初期値</t>
+    <t>☆先頭大文字抑制</t>
     <rPh sb="1" eb="3">
-      <t>コウモク</t>
+      <t>セントウ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
+    <rPh sb="3" eb="6">
+      <t>オオモジ</t>
     </rPh>
-    <rPh sb="5" eb="8">
-      <t>ショキチ</t>
+    <rPh sb="6" eb="8">
+      <t>ヨクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>★項目名の存在確認チェック</t>
+    <t>ー先頭のフォームにカーソルを合わせる</t>
+    <rPh sb="1" eb="3">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆項目名の存在確認チェック</t>
     <rPh sb="1" eb="3">
       <t>コウモク</t>
     </rPh>
@@ -289,11 +268,201 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>★ItemEditView</t>
+    <t>☆項目名の初期値</t>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショキチ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>★Addボタンを項目の真下に表示する</t>
+    <t>★hab_chain_dataの名称変更</t>
+    <rPh sb="16" eb="18">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→☆別のstate変数は更新される？</t>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→hab_chain_dataをclassからstructにすることで解消</t>
+    <rPh sb="35" eb="37">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆並べ替え/削除後にhab_chain_dataが更新されない</t>
+    <rPh sb="1" eb="2">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆Add後にhab_chain_dataが更新されない</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★編集ボタンを追加する</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★画像サイズ可変化</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カヘン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ItemSettingView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ContentView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ItemEditView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★フォームの初期値を設定値にする</t>
+    <rPh sb="6" eb="9">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ItemAddView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆並び替えリスト</t>
+    <rPh sb="1" eb="2">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・共通</t>
+    <rPh sb="1" eb="3">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★カレンダー編集</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★Skip表示検討</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★数値計算</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★色判定</t>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★日付表示</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★ItemSettingViewをContentViewにまとめる？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★週/月/年達成率 機能</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>☆Addボタンを項目の真下に表示する</t>
     <rPh sb="8" eb="10">
       <t>コウモク</t>
     </rPh>
@@ -305,27 +474,12 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>★ItemAddView</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★ContentView</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★ボタン表示</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -360,13 +514,138 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,7 +657,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,8 +667,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,8 +681,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="ハイパーリンク 2" xfId="2" xr:uid="{8349D7F6-BD02-4056-9AC7-108058506DA9}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{38B3FF6F-C7E8-48B6-8927-31FEC3D36EFF}"/>
@@ -8148,10 +8491,31 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="setting"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="GetInteriorColorAll"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8159,34 +8523,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -8448,13 +8812,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:K93"/>
+  <dimension ref="B2:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" outlineLevelRow="3" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3.83203125" style="1"/>
   </cols>
@@ -8464,205 +8828,642 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="1" t="s">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="E56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="G58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="G59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="H61" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="G62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="G63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="G64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="F65" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15">
+      <c r="G66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" hidden="1" outlineLevel="3" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D71" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D72" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D75" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="1" t="s">
+    <row r="76" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D76" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="1" t="s">
+    <row r="77" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="1" t="s">
+    <row r="78" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D78" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="1" t="s">
-        <v>5</v>
+    <row r="80" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C61" s="1" t="s">
-        <v>6</v>
+    <row r="81" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D81" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D62" s="1" t="s">
-        <v>7</v>
+    <row r="82" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C84" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D63" s="1" t="s">
-        <v>8</v>
+    <row r="85" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="64" spans="3:4" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="1" t="s">
+    <row r="86" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D86" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E87" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E88" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E89" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D91" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="3:18" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="D65" s="1" t="s">
-        <v>9</v>
+    <row r="97" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="66" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="D66" s="1" t="s">
-        <v>10</v>
+    <row r="98" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="67" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>12</v>
+    <row r="99" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C101" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="68" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>14</v>
+    <row r="102" spans="3:18" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="69" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>16</v>
+    <row r="103" spans="3:18" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="70" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>18</v>
+    <row r="104" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D104" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="71" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G71" s="1" t="s">
-        <v>19</v>
+    <row r="105" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="72" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>21</v>
+    <row r="106" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C108" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="73" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>23</v>
+    <row r="109" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="74" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E75" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F76" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C78" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C79" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C80" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C84" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C85" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D86" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D87" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C89" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D90" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C92" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D93" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="110" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C112" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="C81" r:id="rId1" xr:uid="{655EFE18-AFD4-4D2A-8533-CA80C959CF2D}"/>
+    <hyperlink ref="D71" r:id="rId1" display="★並び替えリスト" xr:uid="{655EFE18-AFD4-4D2A-8533-CA80C959CF2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93FB541-1042-405B-9B8C-766B350A743F}">
+  <dimension ref="B1:V10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.33203125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18" style="4" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18" style="4" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18" style="4" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18" style="4" customWidth="1"/>
+    <col min="11" max="12" width="1.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18" style="4" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="18" style="4" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="18" style="4" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="18" style="4" customWidth="1"/>
+    <col min="20" max="20" width="1.6640625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="18" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="7.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="2:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(B3)</f>
+        <v>242,220,219</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(D3)</f>
+        <v>230,184,183</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(F3)</f>
+        <v>218,150,148</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(H3)</f>
+        <v>150,54,52</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(J3)</f>
+        <v>99,37,35</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(M3)</f>
+        <v>242,220,219</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(O3)</f>
+        <v>230,184,183</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(Q3)</f>
+        <v>218,150,148</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(S3)</f>
+        <v>150,54,52</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(U3)</f>
+        <v>99,37,35</v>
+      </c>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="10">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="11">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="2:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(B6)</f>
+        <v>235,241,222</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(D6)</f>
+        <v>216,228,188</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(F6)</f>
+        <v>196,215,155</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(H6)</f>
+        <v>118,147,60</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(J6)</f>
+        <v>79,98,40</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(M6)</f>
+        <v>235,241,222</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(O6)</f>
+        <v>216,228,188</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(Q6)</f>
+        <v>196,215,155</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(S6)</f>
+        <v>118,147,60</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(U6)</f>
+        <v>79,98,40</v>
+      </c>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="13">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="14">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="15">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="16">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="2:22" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="2:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(B9)</f>
+        <v>220,230,241</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(D9)</f>
+        <v>184,204,228</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(F9)</f>
+        <v>149,179,215</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(H9)</f>
+        <v>54,96,146</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f>[1]!GetInteriorColorAll(J9)</f>
+        <v>36,64,98</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(M9)</f>
+        <v>220,230,241</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(O9)</f>
+        <v>184,204,228</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(Q9)</f>
+        <v>149,179,215</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(S9)</f>
+        <v>54,96,146</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6" t="str">
+        <f>[1]!GetInteriorColorAll(U9)</f>
+        <v>36,64,98</v>
+      </c>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="17">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="18">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="19">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="20">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="21">
+        <v>1</v>
+      </c>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/swift/app/hab-chain/design_hab-chain.xlsx
+++ b/swift/app/hab-chain/design_hab-chain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\swift\app\hab-chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8798B2E-C22B-42AF-B162-658FB4115F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBE7DB6-658C-4407-9DFD-39C538044622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>■hab-chain</t>
     <phoneticPr fontId="3"/>
@@ -338,16 +338,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>★編集ボタンを追加する</t>
-    <rPh sb="1" eb="3">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>★画像サイズ可変化</t>
     <rPh sb="1" eb="3">
       <t>ガゾウ</t>
@@ -474,12 +464,125 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>★statusのkeyをDateからStringに変える</t>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆Finish→Done</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・AppSettingView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★画面設計</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★同じ項目名エラーが出る件</t>
+    <rPh sb="1" eb="2">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★ダークモード時のアイコン色</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★ダークモード時かつ0のボタン背景を白→透明</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★スキップ可能回数アルゴリズム</t>
+    <rPh sb="5" eb="7">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆編集ボタンを追加する</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★Doneボタン→右上Saveボタン</t>
+    <rPh sb="9" eb="11">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★全項目の連続数ボタン表示</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -531,14 +634,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -657,7 +752,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,11 +762,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,12 +830,8 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク 2" xfId="2" xr:uid="{8349D7F6-BD02-4056-9AC7-108058506DA9}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{38B3FF6F-C7E8-48B6-8927-31FEC3D36EFF}"/>
@@ -8812,10 +8900,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:R112"/>
+  <dimension ref="B2:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM89" sqref="AM89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" outlineLevelRow="3" x14ac:dyDescent="0.15"/>
@@ -8830,7 +8918,7 @@
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="3:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
@@ -8937,176 +9025,219 @@
     </row>
     <row r="71" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D71" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D73" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D74" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D75" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D76" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D78" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D79" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D80" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="82" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="83" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C84" s="1" t="s">
-        <v>43</v>
+    <row r="82" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D82" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D83" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D84" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C87" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D88" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R85" s="1" t="s">
+      <c r="R88" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D86" s="1" t="s">
+    <row r="89" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D89" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E87" s="1" t="s">
+    <row r="90" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E90" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E91" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E88" s="1" t="s">
+    <row r="92" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E92" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E89" s="1" t="s">
-        <v>50</v>
+    <row r="95" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="90" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="1" t="s">
-        <v>53</v>
+    <row r="96" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="92" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="3:18" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="1" t="s">
-        <v>46</v>
+    <row r="97" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="3:18" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="95" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D95" s="1" t="s">
+    <row r="99" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D99" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D96" s="1" t="s">
+    <row r="100" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D97" s="3" t="s">
+    <row r="101" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D98" s="1" t="s">
+    <row r="102" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="100" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C101" s="1" t="s">
-        <v>42</v>
+    <row r="103" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C105" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="102" spans="3:18" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="D102" s="1" t="s">
+    <row r="106" spans="3:18" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R102" s="1" t="s">
+      <c r="R106" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="3:18" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E103" s="1" t="s">
+    <row r="107" spans="3:18" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E107" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O103" s="1" t="s">
+      <c r="O107" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D104" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="105" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D105" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="107" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C108" s="1" t="s">
-        <v>44</v>
+    <row r="108" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D109" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="110" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="111" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="112" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C112" s="22"/>
+      <c r="C112" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D114" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C116" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D117" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -9124,7 +9255,7 @@
   <dimension ref="B1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.33203125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/swift/app/hab-chain/design_hab-chain.xlsx
+++ b/swift/app/hab-chain/design_hab-chain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\swift\app\hab-chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBE7DB6-658C-4407-9DFD-39C538044622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C53E9A-343E-4F18-B62B-81C879652269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>■hab-chain</t>
     <phoneticPr fontId="3"/>
@@ -222,13 +222,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>★ボタン表示</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>☆先頭大文字抑制</t>
     <rPh sb="1" eb="3">
       <t>セントウ</t>
@@ -363,16 +356,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>★フォームの初期値を設定値にする</t>
-    <rPh sb="6" eb="9">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>セッテイチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・ItemAddView</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -401,50 +384,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>★Skip表示検討</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★数値計算</t>
-    <rPh sb="1" eb="3">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★色判定</t>
-    <rPh sb="1" eb="2">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★日付表示</t>
-    <rPh sb="1" eb="3">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★ItemSettingViewをContentViewにまとめる？</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>★週/月/年達成率 機能</t>
     <rPh sb="10" eb="12">
       <t>キノウ</t>
@@ -461,13 +400,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★statusのkeyをDateからStringに変える</t>
-    <rPh sb="25" eb="26">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -490,51 +422,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>★同じ項目名エラーが出る件</t>
-    <rPh sb="1" eb="2">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★ダークモード時のアイコン色</t>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★ダークモード時かつ0のボタン背景を白→透明</t>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>★スキップ可能回数アルゴリズム</t>
     <rPh sb="5" eb="7">
       <t>カノウ</t>
@@ -555,24 +442,257 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>★Doneボタン→右上Saveボタン</t>
-    <rPh sb="9" eb="11">
-      <t>ミギウエ</t>
+    <t>★全項目の連続数ボタン表示</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>★全項目の連続数ボタン表示</t>
-    <rPh sb="1" eb="4">
-      <t>ゼンコウモク</t>
-    </rPh>
+    <t>☆ダークモード時のアイコン色</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆statusのkeyをDateからStringに変える</t>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆ボタン表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆数値計算</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆色判定</t>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆Skip表示検討</t>
     <rPh sb="5" eb="7">
-      <t>レンゾク</t>
-    </rPh>
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆ダークモード時かつ0のボタン背景を白→透明</t>
     <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆日付表示</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆ButtonのFor対応</t>
     <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆曜日表示</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆曜日中央ぞろえ</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★settingアイコンを大きくする</t>
+    <rPh sb="13" eb="14">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆同じ項目名エラーが出る件</t>
+    <rPh sb="1" eb="2">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★全体日時の色</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★fatalError化</t>
+    <rPh sb="11" eb="12">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆フォームの初期値を設定値にする</t>
+    <rPh sb="6" eb="9">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★archived=trueを省略する</t>
+    <rPh sb="15" eb="17">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★json保存設定</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★クラウド保存</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(★アイテム編集画面が重い</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(★最初の項目にフォーカスを充てる</t>
+    <rPh sb="2" eb="4">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(★Doneボタン→右上Saveボタン</t>
+    <rPh sb="10" eb="12">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆calcContunuationCountのロジック変更</t>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆ボタン押下時にstatusを表示する</t>
+    <rPh sb="4" eb="6">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -582,7 +702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -636,6 +756,13 @@
       <color theme="0"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -763,7 +890,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +956,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8900,10 +9030,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:R117"/>
+  <dimension ref="B2:R129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM89" sqref="AM89"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" outlineLevelRow="3" x14ac:dyDescent="0.15"/>
@@ -8918,7 +9048,7 @@
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C53" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="3:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
@@ -9025,218 +9155,278 @@
     </row>
     <row r="71" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D71" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D73" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D74" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D75" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D76" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D78" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D79" s="1" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D80" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D82" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D83" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D84" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D85" s="1" t="s">
-        <v>63</v>
+      <c r="D85" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="86" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C87" s="1" t="s">
-        <v>42</v>
+    <row r="86" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D86" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D87" s="22" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D88" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D89" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D90" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D91" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="3:18" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E97" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E98" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E99" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D104" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="3:5" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D111" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E90" s="1" t="s">
+    <row r="112" spans="3:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C114" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="3:18" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="3:18" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D117" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D118" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C121" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D122" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D124" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D125" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C127" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E91" s="1" t="s">
+    <row r="128" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D128" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E92" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="3:18" outlineLevel="2" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D94" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D95" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="96" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D96" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="98" spans="3:18" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D99" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D100" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D101" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D102" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="104" spans="3:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="105" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C105" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="106" spans="3:18" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="D106" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="3:18" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E107" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D108" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D109" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="110" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D110" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="112" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C112" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D113" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D114" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D117" s="1" t="s">
-        <v>59</v>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E129" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/swift/app/hab-chain/design_hab-chain.xlsx
+++ b/swift/app/hab-chain/design_hab-chain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\swift\app\hab-chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C53E9A-343E-4F18-B62B-81C879652269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FD9FD-C978-4798-8D26-1D274A69546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
   </bookViews>
@@ -9033,7 +9033,7 @@
   <dimension ref="B2:R129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" outlineLevelRow="3" x14ac:dyDescent="0.15"/>

--- a/swift/app/hab-chain/design_hab-chain.xlsx
+++ b/swift/app/hab-chain/design_hab-chain.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\swift\app\hab-chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FD9FD-C978-4798-8D26-1D274A69546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE32ED-ECE5-43E2-8511-A40FC6C761A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
+    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" activeTab="3" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
   </bookViews>
   <sheets>
     <sheet name="設計" sheetId="2" r:id="rId1"/>
-    <sheet name="色" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="色" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="カテゴリ">#REF!</definedName>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t>■hab-chain</t>
     <phoneticPr fontId="3"/>
@@ -695,6 +698,199 @@
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>App起動時</t>
+    <rPh sb="3" eb="5">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストレージ保存</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストレージ読み込み</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>json_string保存</t>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>json_string読み込み</t>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータス変更時</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ItemSetting終了時</t>
+    <rPh sb="11" eb="14">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バックアップ実行時</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バックアップ復旧時</t>
+    <rPh sb="6" eb="8">
+      <t>フッキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←(Done)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←(Cancel)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←(選択)</t>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>new_color←選択結果</t>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>new_color ← hab_chain_data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>onAppear</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hab_chain_data ← new_color</t>
+  </si>
+  <si>
+    <t>hj]hjhkhk]hkj[][]][[][]][n][m^n[[[kj[:ljljんｋｊｋｌｊｋｌｊｆ；ｄｓｆじゃ＠ｗ＠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「「「「</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＾＾</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>.,,，ｋ；；ぃきｋぃいい９おおおぉお０おーぴいｐ：：：；っぽおｋｋｋｋｌｌｌｌｌ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\\@@-;pllo]::::::[\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\\\\\\\\\\\\\\\\\\\\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>^_^</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>^o^</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>^_^ ^o^ ^o^</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>】[\\\\\\\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>」]:;;;;;.;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -702,7 +898,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -763,6 +959,14 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -879,7 +1083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,8 +1093,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,8 +1167,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="ハイパーリンク 2" xfId="2" xr:uid="{8349D7F6-BD02-4056-9AC7-108058506DA9}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{38B3FF6F-C7E8-48B6-8927-31FEC3D36EFF}"/>
@@ -8704,6 +8918,143 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>181445</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>85741</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>18173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C18BC0-887A-C148-39FF-257ABD358750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5658320" y="1714500"/>
+          <a:ext cx="3628571" cy="7019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>181445</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>56286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DAFB53-78A3-FFCB-9FD5-0CA48FA7055E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601670" y="1714500"/>
+          <a:ext cx="3761905" cy="6914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>37657</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>75315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C293321-BD03-6F08-95BD-983D04FB9239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="1714500"/>
+          <a:ext cx="3542857" cy="7076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9030,10 +9381,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:R129"/>
+  <dimension ref="B2:AC144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q93" sqref="Q93"/>
+    <sheetView topLeftCell="A86" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" outlineLevelRow="3" x14ac:dyDescent="0.15"/>
@@ -9424,9 +9775,61 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:29" x14ac:dyDescent="0.15">
       <c r="E129" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="I140" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W140" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC140" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C141" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C142" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C143" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W143" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C144" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC144" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -9441,11 +9844,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853C85BB-2A05-442A-A66E-D02D8CDCC1C6}">
+  <dimension ref="V64:AR76"/>
+  <sheetViews>
+    <sheetView topLeftCell="D29" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="64" spans="22:41" x14ac:dyDescent="0.15">
+      <c r="V64" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="22:44" x14ac:dyDescent="0.15">
+      <c r="V66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="22:44" x14ac:dyDescent="0.15">
+      <c r="V68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="22:44" x14ac:dyDescent="0.15">
+      <c r="V72" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="22:44" x14ac:dyDescent="0.15">
+      <c r="V74" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="22:44" x14ac:dyDescent="0.15">
+      <c r="V76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93FB541-1042-405B-9B8C-766B350A743F}">
   <dimension ref="B1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.33203125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9787,4 +10264,140 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DDD09E-05E7-4C99-84D2-FAA37897BE77}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A19:S345"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="394" zoomScaleNormal="394" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="214" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S214" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="216" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S216" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="228" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S228" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="255" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="J255" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="256" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F256" t="s">
+        <v>108</v>
+      </c>
+      <c r="K256" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
+        <v>106</v>
+      </c>
+      <c r="G258" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F259" t="s">
+        <v>113</v>
+      </c>
+      <c r="G259" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="315" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L315" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G340" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G341" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A344" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E344" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E345" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="E344" r:id="rId1" xr:uid="{B65EAE60-A7C1-4520-A8C0-074A4FCD10BB}"/>
+    <hyperlink ref="A344" r:id="rId2" xr:uid="{6B6D9EA5-BA12-4A95-8A49-967BC5AA3220}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7042DB2-2499-4FC9-A19A-4DCA6DA1C076}">
+  <dimension ref="C9:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.83203125" style="23"/>
+    <col min="3" max="3" width="5" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.83203125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C9" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="23">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/swift/app/hab-chain/design_hab-chain.xlsx
+++ b/swift/app/hab-chain/design_hab-chain.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\swift\app\hab-chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE32ED-ECE5-43E2-8511-A40FC6C761A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D13CC2-42D7-41A2-9BD2-975FCA8437B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" activeTab="3" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
+    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" activeTab="2" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
   </bookViews>
   <sheets>
     <sheet name="設計" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="色" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="色" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="カテゴリ">#REF!</definedName>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>■hab-chain</t>
     <phoneticPr fontId="3"/>
@@ -825,80 +824,12 @@
   <si>
     <t>hab_chain_data ← new_color</t>
   </si>
-  <si>
-    <t>hj]hjhkhk]hkj[][]][[][]][n][m^n[[[kj[:ljljんｋｊｋｌｊｋｌｊｆ；ｄｓｆじゃ＠ｗ＠</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「「「「</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＠</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＾＾</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>.,,，ｋ；；ぃきｋぃいい９おおおぉお０おーぴいｐ：：：；っぽおｋｋｋｋｌｌｌｌｌ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>oo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>\\@@-;pllo]::::::[\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>\\\\\\\\\\\\\\\\\\\\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>^</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>^_^</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>^o^</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　　　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>か</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>^_^ ^o^ ^o^</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>】[\\\\\\\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>」]:;;;;;.;</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -959,14 +890,6 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1083,7 +1006,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,11 +1016,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1170,12 +1090,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク 2" xfId="2" xr:uid="{8349D7F6-BD02-4056-9AC7-108058506DA9}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{38B3FF6F-C7E8-48B6-8927-31FEC3D36EFF}"/>
@@ -9057,6 +8973,147 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491124D5-DB88-71A7-DAA9-DECEEFDBEB5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>26</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3268F3-DCD8-981C-E6F2-35325301F611}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -9383,9 +9440,7 @@
   </sheetPr>
   <dimension ref="B2:AC144"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" outlineLevelRow="3" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9847,9 +9902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853C85BB-2A05-442A-A66E-D02D8CDCC1C6}">
   <dimension ref="V64:AR76"/>
   <sheetViews>
-    <sheetView topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9918,12 +9971,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2052F648-0AE3-4C7B-82F9-9B032DD0A569}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BO35" sqref="BO35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.83203125" style="23"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>29</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3074" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3074" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93FB541-1042-405B-9B8C-766B350A743F}">
   <dimension ref="B1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.33203125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10264,140 +10391,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DDD09E-05E7-4C99-84D2-FAA37897BE77}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A19:S345"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="394" zoomScaleNormal="394" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H136" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="214" spans="19:19" x14ac:dyDescent="0.15">
-      <c r="S214" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="216" spans="19:19" x14ac:dyDescent="0.15">
-      <c r="S216" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="228" spans="19:19" x14ac:dyDescent="0.15">
-      <c r="S228" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="255" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="J255" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="256" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F256" t="s">
-        <v>108</v>
-      </c>
-      <c r="K256" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A258" t="s">
-        <v>106</v>
-      </c>
-      <c r="G258" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F259" t="s">
-        <v>113</v>
-      </c>
-      <c r="G259" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="315" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L315" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G340" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G341" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A344" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E344" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E345" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="E344" r:id="rId1" xr:uid="{B65EAE60-A7C1-4520-A8C0-074A4FCD10BB}"/>
-    <hyperlink ref="A344" r:id="rId2" xr:uid="{6B6D9EA5-BA12-4A95-8A49-967BC5AA3220}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7042DB2-2499-4FC9-A19A-4DCA6DA1C076}">
-  <dimension ref="C9:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="3.83203125" style="23"/>
-    <col min="3" max="3" width="5" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.83203125" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C9" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="23">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/swift/app/hab-chain/design_hab-chain.xlsx
+++ b/swift/app/hab-chain/design_hab-chain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\swift\app\hab-chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D13CC2-42D7-41A2-9BD2-975FCA8437B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DC5C2D-DAB9-4AD2-9ACD-1C11678E04B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" activeTab="2" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
   </bookViews>
@@ -1017,7 +1017,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,9 +1087,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク 2" xfId="2" xr:uid="{8349D7F6-BD02-4056-9AC7-108058506DA9}"/>
@@ -1129,7 +1126,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC23FC51-85B6-40BF-B92A-DBC04A447313}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1198,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CF11B4-50C9-47D5-890A-8052CF5CADDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1288,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721B59A0-3683-4099-8B01-EF2E9E731C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1361,7 @@
         <xdr:cNvPr id="5" name="楕円 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C184EB-EEFB-4AEB-85FE-730C2434714F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1451,7 @@
         <xdr:cNvPr id="6" name="楕円 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E89931-9D3C-42E9-A610-B66F45259B98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1541,7 @@
         <xdr:cNvPr id="7" name="楕円 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D103A0E4-4445-49A2-96F1-28FF9EEB99B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1631,7 @@
         <xdr:cNvPr id="8" name="楕円 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C68C3C9-D209-47FF-B49C-99322A43F780}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1719,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0B1416-8381-4CD6-87D8-BA6833E8B1E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1799,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A547B0A2-94D3-4AC2-B72B-07BE1067CC6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1879,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA876280-13B4-4331-BFDA-159B307A08C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1959,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD354E82-B4BA-419A-9412-EFF39FBA584D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2039,7 @@
         <xdr:cNvPr id="13" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0645EF84-93F9-4431-AB56-38EA4E5122F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2102,7 @@
         <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747E0A24-4F94-4369-9D06-630924885F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2165,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D49815-DE0C-40E9-A0E2-6D3D5CD34D37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2227,7 @@
         <xdr:cNvPr id="16" name="直線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E923F3-7198-48DE-8449-80A431E614AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2288,7 @@
         <xdr:cNvPr id="17" name="楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D848C966-C849-438B-A3D1-C4C6F36F7E18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2376,7 @@
         <xdr:cNvPr id="18" name="楕円 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BBF482-1D90-46E0-939A-5CD7F6A80C9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2453,7 @@
         <xdr:cNvPr id="19" name="楕円 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF92DD61-7C24-438C-A174-2177EA581E89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2530,7 @@
         <xdr:cNvPr id="20" name="楕円 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4529745-D0FB-426C-AE7F-2BB2121D935A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2620,7 @@
         <xdr:cNvPr id="21" name="楕円 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA587268-95EA-4D5B-B5C1-B447DE592EA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2710,7 @@
         <xdr:cNvPr id="22" name="直線コネクタ 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC1E62E-42AE-4A0C-AD6B-8BBDCC98720E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2772,7 @@
         <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EEF108-DCFF-482B-8F0B-5547DE0D4648}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +2834,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB23FA51-30D5-4BCD-9433-3E18F3CFF7D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2907,7 @@
         <xdr:cNvPr id="25" name="正方形/長方形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5984DD-092F-4C73-B9EF-6BA76C13FD10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2979,7 @@
         <xdr:cNvPr id="26" name="正方形/長方形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A720AF71-9E51-49ED-8074-BF99270B928B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3055,7 +3052,7 @@
         <xdr:cNvPr id="27" name="図 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4356B06-BBA1-4646-9A54-F80A6F4E7B96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,7 +3096,7 @@
         <xdr:cNvPr id="28" name="図 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F776FC9-2BB2-46B4-B065-4E59726F1EA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,7 +3140,7 @@
         <xdr:cNvPr id="29" name="楕円 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7BC678-CB1C-4EBC-8EEF-4749B15AA719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3233,7 +3230,7 @@
         <xdr:cNvPr id="30" name="楕円 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651133CE-6AA1-41CE-AB93-8A52F8FF8DF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3320,7 @@
         <xdr:cNvPr id="31" name="楕円 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B262DD-349C-427D-AA45-C050A751D005}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3413,7 +3410,7 @@
         <xdr:cNvPr id="32" name="楕円 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76133C30-7302-4837-8412-0B3C893A51A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3498,7 @@
         <xdr:cNvPr id="33" name="直線コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3DED36-04D1-4543-A0DC-F50AAA48EB3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3564,7 +3561,7 @@
         <xdr:cNvPr id="34" name="直線コネクタ 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45BDE02-BEDE-4D8F-B94A-9605A4FD28F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3627,7 +3624,7 @@
         <xdr:cNvPr id="35" name="直線コネクタ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AFD067-F66B-4D5C-8892-7FA81B615B2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3689,7 +3686,7 @@
         <xdr:cNvPr id="36" name="直線コネクタ 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AADF22D-0895-4AED-ADCC-0EB9266C78B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3750,7 +3747,7 @@
         <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E74831-BB35-4C6A-AF83-998E4F7D3BE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3823,7 +3820,7 @@
         <xdr:cNvPr id="38" name="楕円 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A55179-AF64-4097-83AC-06383DE625BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3913,7 +3910,7 @@
         <xdr:cNvPr id="39" name="楕円 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7654AB-01CA-4F2A-A960-45A73F88B159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4003,7 +4000,7 @@
         <xdr:cNvPr id="40" name="楕円 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55F0D25-690E-47DC-87A4-E9976E786FD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4093,7 +4090,7 @@
         <xdr:cNvPr id="41" name="楕円 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDBDADE-4AE3-4400-8AC9-FA57E0661AB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4181,7 +4178,7 @@
         <xdr:cNvPr id="42" name="直線コネクタ 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5ADDBD3-EA3D-4981-B641-DA12C992F0D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4244,7 +4241,7 @@
         <xdr:cNvPr id="43" name="直線コネクタ 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D5041E-C2BF-4FFF-B160-9028EACDCE8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4307,7 +4304,7 @@
         <xdr:cNvPr id="44" name="直線コネクタ 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A17FA5-1621-4882-A53E-B4EE286B99C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4366,7 @@
         <xdr:cNvPr id="45" name="直線コネクタ 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCC4307-08BA-48A1-AEF2-95353B8C0EE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4430,7 +4427,7 @@
         <xdr:cNvPr id="46" name="正方形/長方形 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2382686-9EAA-483E-AB78-2A936A24F9F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4520,7 +4517,7 @@
         <xdr:cNvPr id="47" name="楕円 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40ADF742-7719-40A2-8DAE-DF8940375CFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4610,7 +4607,7 @@
         <xdr:cNvPr id="48" name="楕円 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A498C93A-99D8-4EE1-AEE3-E35ED64C2B86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4700,7 +4697,7 @@
         <xdr:cNvPr id="49" name="楕円 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB35A58F-3B73-4C9C-A53A-CB913CF4E414}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,7 +4787,7 @@
         <xdr:cNvPr id="50" name="直線コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3B0AF6-E140-4178-994E-DE2798D89069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4853,7 +4850,7 @@
         <xdr:cNvPr id="51" name="直線コネクタ 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C1334C-6AEE-4BB4-91D0-6D2A512DAA71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4916,7 +4913,7 @@
         <xdr:cNvPr id="52" name="直線コネクタ 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48875C54-BA9F-4902-9B79-6A945CEA8CC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4978,7 +4975,7 @@
         <xdr:cNvPr id="53" name="正方形/長方形 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9F54D4-E373-4DEB-8D39-73C4600802C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +5065,7 @@
         <xdr:cNvPr id="54" name="楕円 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D0DBCA-EFA8-4500-969C-A8CBB108AFAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5158,7 +5155,7 @@
         <xdr:cNvPr id="55" name="楕円 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C02E6EA-5B4C-43DA-B1CC-7C6DB04DB74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5248,7 +5245,7 @@
         <xdr:cNvPr id="56" name="直線コネクタ 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EF5D9C-C7B1-4BD9-B61C-13DEB3E0EFB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5311,7 +5308,7 @@
         <xdr:cNvPr id="57" name="直線コネクタ 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C524766-0899-468B-A858-4C6C1BE6AFF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5374,7 +5371,7 @@
         <xdr:cNvPr id="58" name="正方形/長方形 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F91C63-45DF-458C-99B7-E714299C1FA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5447,7 +5444,7 @@
         <xdr:cNvPr id="59" name="楕円 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A5ACDE-CDC5-4E9D-A9A4-0EE125DE394D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5537,7 +5534,7 @@
         <xdr:cNvPr id="60" name="楕円 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2903D30-B0B3-44D1-A147-84868988BFB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5627,7 +5624,7 @@
         <xdr:cNvPr id="61" name="楕円 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A0362B-2E32-47FF-A6D6-957E7B3C5A51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5717,7 +5714,7 @@
         <xdr:cNvPr id="62" name="直線コネクタ 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D9208C-FE01-45EC-A497-E87B934F310C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5780,7 +5777,7 @@
         <xdr:cNvPr id="63" name="直線コネクタ 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFD7D1F-5B30-4391-9199-D784E715559C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5843,7 +5840,7 @@
         <xdr:cNvPr id="64" name="直線コネクタ 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D56A11-384A-419F-A502-D233DDDAE141}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5905,7 +5902,7 @@
         <xdr:cNvPr id="65" name="正方形/長方形 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE310DFE-2D1E-44CD-BC04-F353E72F5092}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5995,7 +5992,7 @@
         <xdr:cNvPr id="66" name="楕円 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B846235B-751E-4466-956D-A1321072A3FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6085,7 +6082,7 @@
         <xdr:cNvPr id="67" name="楕円 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB30C5A5-483C-4CFE-9323-A53EEADE273A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6175,7 +6172,7 @@
         <xdr:cNvPr id="68" name="楕円 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC316FEB-C1FD-45BC-921C-27E697E0E9D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6265,7 +6262,7 @@
         <xdr:cNvPr id="69" name="直線コネクタ 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6C95A2-2B6D-4987-93A0-AF2066912254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6328,7 +6325,7 @@
         <xdr:cNvPr id="70" name="直線コネクタ 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AF8336-1C64-4A62-9E89-DE905D052B8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6391,7 +6388,7 @@
         <xdr:cNvPr id="71" name="直線コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED69753-4954-4021-BFE6-CC9B23CA3AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6453,7 +6450,7 @@
         <xdr:cNvPr id="72" name="正方形/長方形 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D1DAD8-6FA2-46CF-A12F-395D87A98575}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6533,7 +6530,7 @@
         <xdr:cNvPr id="73" name="正方形/長方形 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D0A38-CBC1-46B3-91E5-49A68F65C4F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6606,7 +6603,7 @@
         <xdr:cNvPr id="74" name="正方形/長方形 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7517346-668D-4C75-990B-46CF3F260005}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6679,7 +6676,7 @@
         <xdr:cNvPr id="75" name="楕円 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCC7229-AAA8-47E4-837D-1F7566E835A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6769,7 +6766,7 @@
         <xdr:cNvPr id="76" name="楕円 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365B6A44-F47A-4D27-80DA-0663DEC60F72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6859,7 +6856,7 @@
         <xdr:cNvPr id="77" name="直線コネクタ 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8F7795-33C2-4213-B718-479B3996DF9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6922,7 +6919,7 @@
         <xdr:cNvPr id="78" name="直線コネクタ 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76D322B-6A47-4714-A9F8-D8FE58A739C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6985,7 +6982,7 @@
         <xdr:cNvPr id="79" name="図 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25547515-6101-4B99-A74A-FF35792CE381}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7029,7 +7026,7 @@
         <xdr:cNvPr id="80" name="正方形/長方形 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D16736D-C472-4B7E-BD66-076E5217B8CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7101,7 +7098,7 @@
         <xdr:cNvPr id="81" name="正方形/長方形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463BBE19-00DB-4AAB-B5BB-23360962FA89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7174,7 +7171,7 @@
         <xdr:cNvPr id="82" name="正方形/長方形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E51CD2-6D4A-4892-9E1A-856D2635E961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7264,7 +7261,7 @@
         <xdr:cNvPr id="83" name="正方形/長方形 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F42B7C8-74F9-492D-A2C7-1F02CF180834}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7337,7 +7334,7 @@
         <xdr:cNvPr id="84" name="正方形/長方形 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7229B6-1281-4141-BF9F-687B189066F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7417,7 +7414,7 @@
         <xdr:cNvPr id="85" name="正方形/長方形 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E459E5-F126-4F72-874D-BA9EF59705B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7490,7 +7487,7 @@
         <xdr:cNvPr id="86" name="図 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213AC0EB-E197-447D-8AFC-39F5E719BB4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7534,7 +7531,7 @@
         <xdr:cNvPr id="87" name="正方形/長方形 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B9632F-7C37-47E6-8178-202E7C34FC95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7607,7 +7604,7 @@
         <xdr:cNvPr id="88" name="図 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B845D1A0-6553-4D34-91B7-69FDE9778FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7651,7 +7648,7 @@
         <xdr:cNvPr id="89" name="正方形/長方形 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8322CA-3CA4-44A4-A70C-CEF59111EA00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7724,7 +7721,7 @@
         <xdr:cNvPr id="90" name="正方形/長方形 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9624C7-D434-4120-B141-DA04224F15D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7804,7 +7801,7 @@
         <xdr:cNvPr id="91" name="楕円 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED56A3B2-7BF4-4406-8AC1-DF233335C7BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7894,7 +7891,7 @@
         <xdr:cNvPr id="92" name="楕円 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59C294F-8826-40BD-A642-2A71FDA378FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7984,7 +7981,7 @@
         <xdr:cNvPr id="93" name="楕円 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0722D5-424F-4E41-8822-EE6E4E200AE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8074,7 +8071,7 @@
         <xdr:cNvPr id="94" name="楕円 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92BFF5D-6058-41BC-84F4-FB65692608AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8162,7 +8159,7 @@
         <xdr:cNvPr id="95" name="直線コネクタ 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D225EF06-617B-4213-ABDC-7F85367E980D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8224,7 +8221,7 @@
         <xdr:cNvPr id="96" name="直線コネクタ 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C79338-10DF-4405-B49D-14E8EA9C8DF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8287,7 +8284,7 @@
         <xdr:cNvPr id="97" name="直線コネクタ 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9707BD33-8589-4D85-9403-E71A568C3F17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8349,7 +8346,7 @@
         <xdr:cNvPr id="98" name="直線コネクタ 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A310B3B7-862D-4CC1-9013-31274ABE43FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8410,7 +8407,7 @@
         <xdr:cNvPr id="99" name="正方形/長方形 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8DD2CD-4D26-4573-97AE-17679DC51FE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8483,7 +8480,7 @@
         <xdr:cNvPr id="100" name="正方形/長方形 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02391A94-B65D-44DB-8849-39825F6AD42B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8556,7 +8553,7 @@
         <xdr:cNvPr id="101" name="正方形/長方形 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD32CEB4-393C-4846-A776-07D85FAF87DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8629,7 +8626,7 @@
         <xdr:cNvPr id="102" name="正方形/長方形 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BC29DF-B83E-490A-8ADA-F76BA0C9ABA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8701,7 +8698,7 @@
         <xdr:cNvPr id="103" name="正方形/長方形 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466B169B-42FA-482D-9377-22B25CAF9A05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8774,7 +8771,7 @@
         <xdr:cNvPr id="104" name="正方形/長方形 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E2FC65-4B7C-4710-A8BA-D5BC3D36CF7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8859,7 +8856,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C18BC0-887A-C148-39FF-257ABD358750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8903,7 +8900,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DAFB53-78A3-FFCB-9FD5-0CA48FA7055E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8947,7 +8944,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C293321-BD03-6F08-95BD-983D04FB9239}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8988,9 +8985,9 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>29</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:col>38</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9001,7 +8998,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491124D5-DB88-71A7-DAA9-DECEEFDBEB5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9022,23 +9019,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -9051,14 +9035,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:col>30</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>94</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9069,7 +9053,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3268F3-DCD8-981C-E6F2-35325301F611}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9090,23 +9074,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -9977,14 +9948,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BO35" sqref="BO35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="AQ34" sqref="AQ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="3.83203125" style="23"/>
-  </cols>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10004,9 +9972,9 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>29</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:col>38</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -10024,14 +9992,14 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:col>30</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>94</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>

--- a/swift/app/hab-chain/design_hab-chain.xlsx
+++ b/swift/app/hab-chain/design_hab-chain.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\swift\app\hab-chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DC5C2D-DAB9-4AD2-9ACD-1C11678E04B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B49638-34CB-4453-A08B-D7E99CD51012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" activeTab="2" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
+    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" activeTab="1" xr2:uid="{40207F7B-45B5-4CA6-AAB5-8C979D74EC05}"/>
   </bookViews>
   <sheets>
     <sheet name="設計" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
-    <sheet name="色" sheetId="3" r:id="rId4"/>
+    <sheet name="図" sheetId="8" r:id="rId2"/>
+    <sheet name="色" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="カテゴリ">#REF!</definedName>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>■hab-chain</t>
     <phoneticPr fontId="3"/>
@@ -783,46 +782,6 @@
       <t>ジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←(Done)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←(Cancel)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←(選択)</t>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>new_color←選択結果</t>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>new_color ← hab_chain_data</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>onAppear</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>hab_chain_data ← new_color</t>
   </si>
 </sst>
 </file>
@@ -8838,157 +8797,20 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>181445</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>85741</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>18173</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5658320" y="1714500"/>
-          <a:ext cx="3628571" cy="7019048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>181445</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>56286</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9601670" y="1714500"/>
-          <a:ext cx="3761905" cy="6914286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>37657</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>75315</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="219075" y="1714500"/>
-          <a:ext cx="3542857" cy="7076190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:col>36</xdr:col>
+          <xdr:colOff>39830</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>103332</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9034,26 +8856,81 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>94</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>123824</xdr:colOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>57151</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3074" name="Object 2" hidden="1">
+            <xdr:cNvPr id="3075" name="Object 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3074"/>
+                  <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>30</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>57</xdr:col>
+          <xdr:colOff>143607</xdr:colOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>53486</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3077" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9870,87 +9747,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853C85BB-2A05-442A-A66E-D02D8CDCC1C6}">
-  <dimension ref="V64:AR76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="64" spans="22:41" x14ac:dyDescent="0.15">
-      <c r="V64" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="22:44" x14ac:dyDescent="0.15">
-      <c r="V66" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="22:44" x14ac:dyDescent="0.15">
-      <c r="V68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="22:44" x14ac:dyDescent="0.15">
-      <c r="V72" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="22:44" x14ac:dyDescent="0.15">
-      <c r="V74" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO74" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="22:44" x14ac:dyDescent="0.15">
-      <c r="V76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2052F648-0AE3-4C7B-82F9-9B032DD0A569}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="AQ34" sqref="AQ34"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -9963,19 +9766,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>36</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9987,34 +9790,59 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="3074" r:id="rId6">
+        <oleObject progId="Visio.Drawing.15" shapeId="3075" r:id="rId6">
           <objectPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>30</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="3074" r:id="rId6"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="3075" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3077" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>30</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>57</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3077" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93FB541-1042-405B-9B8C-766B350A743F}">
   <dimension ref="B1:V10"/>
   <sheetViews>
